--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -1742,7 +1742,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -13305,10 +13305,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B212" r:id="rId1"/>
-    <hyperlink ref="B213" r:id="rId2"/>
-    <hyperlink ref="B214" r:id="rId3"/>
-    <hyperlink ref="B210" r:id="rId4"/>
+    <hyperlink ref="B210" r:id="rId1"/>
+    <hyperlink ref="B212" r:id="rId2"/>
+    <hyperlink ref="B213" r:id="rId3"/>
+    <hyperlink ref="B214" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
@@ -2025,6 +2025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:Y214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -2037,7 +2038,7 @@
     <col min="13" max="25" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
@@ -2025,7 +2025,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:Y214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>

--- a/AfDD_2021_Country_groupings.xlsx
+++ b/AfDD_2021_Country_groupings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Country groupings" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <t>Least Developed Countries (LDC)(8)</t>
   </si>
   <si>
-    <t>Fragility (2018 OECD report)(9)</t>
+    <t>Fragility (2020 OECD report)(9)</t>
   </si>
   <si>
     <t>Common Market for Eastern and Southern Africa (COMESA)(10)</t>
